--- a/generator/test/generated_business_variable_map.xlsx
+++ b/generator/test/generated_business_variable_map.xlsx
@@ -491,36 +491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>i_econ_stop_business</t>
+          <t>m_biz_years_in_operation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>के तपाईंले कोभिड-१९ महामारीको कारण आफ्नो व्यवसाय बन्द गर्नु पर्यो ?</t>
+          <t>यो कहिलेदेखि काम गर्दै आएको छ?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Did you have to stop your business due to COVID-19 pandemic?</t>
+          <t>How long has this been in operation for?</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>110</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>groupby</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>general</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -538,41 +538,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>i_econ_stop_business_how_lng</t>
+          <t>m_biz_type</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>कति समय सम्म तपाईंले आफ्नो व्यापार बन्द गर्नु पर्यो ?</t>
+          <t>व्यवसायको प्रकार</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>For how long did you have to stop your business?</t>
+          <t>Type of business</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>groupby</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>general</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>business temporarily stopped</t>
+          <t>general</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -585,36 +585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>i_covid_effect_business</t>
+          <t>b_n_emplyes_pre_covid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>महामारीको क्रममा यी मध्ये कुन कारकले तपाईको व्यवसाय अपरेसनलाई असर गर्यो?</t>
+          <t>महामारी भन्दा पहिले तपाईको व्यवसायले कति जनालाई रोजगार दिने गर्थ्यो ?</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Which of the following factors affected your business operations during the pandemic?</t>
+          <t>How many people did your business employ before the pandemic?</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>110</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>groupby</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>general</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -628,35 +628,35 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>i_wrkfrc_actn_during_covid</t>
+          <t>i_econ_stop_business</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>महामारीको कारणले तलका मध्ये कुन कार्यबल सम्बन्धित कार्य तपाईंको व्यापारले गरेको छ ?</t>
+          <t>के तपाईंले कोभिड-१९ महामारीको कारण आफ्नो व्यवसाय बन्द गर्नु पर्यो ?</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Which of the following workforce-related actions did your business take due to the pandemic?</t>
+          <t>Did you have to stop your business due to COVID-19 pandemic?</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>110</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -675,35 +675,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>i_fin_effect_loan_avlblty</t>
+          <t>i_econ_stop_business_how_lng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>तलको कुन ऋण सम्बन्धित प्रभावहरू तपाईंको व्यवसायलाई महामारीको कारण सामना गर्नुपर्‍यो?</t>
+          <t>कति समय सम्म तपाईंले आफ्नो व्यापार बन्द गर्नु पर्यो ?</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Which of the following loan related impacts did your business have to face due to the pandemic?</t>
+          <t>For how long did you have to stop your business?</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>business temporarily stopped</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -722,28 +722,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>i_fin_effect_asset_lqdty</t>
+          <t>i_covid_effect_business</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>महामारीका कारण तलका कुन सम्पत्ति सम्बन्धित असर तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
+          <t>महामारीको क्रममा यी मध्ये कुन कारकले तपाईको व्यवसाय अपरेसनलाई असर गर्यो?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Which of the following assets related impacts did your business have to face due to the pandemic?</t>
+          <t>Which of the following factors affected your business operations during the pandemic?</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>110</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -769,35 +769,35 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>i_fin_effect_cost_invstmnt</t>
+          <t>i_fin_revenue_chng_2020_v_2019</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>महामारीका कारण तलका कुन कुन लागत सम्बन्धित असर तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
+          <t>२०१९को तुलानामा महमारिको कारणले २०२० मा तपाईंको व्यापार राजस्वमा परिवर्तन भएको छ ?</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Which of the following costs related impacts did your business have to face due to the pandemic?</t>
+          <t>Compared to 2019, how have your business revenues changed in 2020?</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>110</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -816,35 +816,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>i_geog_effect_loc_chng</t>
+          <t>i_fin_savings_chng_2020_v_2019</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>तलका कुन स्थान सम्बन्धित प्रभावहरू तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
+          <t>२०१९को तुलानामा महमारिको कारणले २०२० मा तपाईंको व्यवसायको बचतमा परिवर्तन भएको छ ?</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Which of the following location related impacts did your business have to face due to the pandemic?</t>
+          <t>Compared to 2019, how has your business’s savings changed in 2020?</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>110</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -863,28 +863,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>i_fin_effct_eqty_ownrshp</t>
+          <t>i_fin_effect_cost_invstmnt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>तलको कुन इक्विटी र स्वामित्वसँग सम्बन्धित प्रभावहरू तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
+          <t>महामारीका कारण तलका कुन कुन लागत सम्बन्धित असर तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Which of the following equity and ownership related impacts did your business have to face due to the pandemic?</t>
+          <t>Which of the following costs related impacts did your business have to face due to the pandemic?</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>110</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -910,40 +910,40 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>b_n_emplyes_pre_covid</t>
+          <t>i_fin_effect_loan_avlblty</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>महामारी भन्दा पहिले तपाईको व्यवसायले कति जनालाई रोजगार दिने गर्थ्यो ?</t>
+          <t>तलको कुन ऋण सम्बन्धित प्रभावहरू तपाईंको व्यवसायलाई महामारीको कारण सामना गर्नुपर्‍यो?</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>How many people did your business employ before the pandemic?</t>
+          <t>Which of the following loan related impacts did your business have to face due to the pandemic?</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>110</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>groupby</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -957,35 +957,35 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>i_wrkfrc_size_chng_2020_v_2019</t>
+          <t>i_fin_effect_asset_lqdty</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>२०१९को तुलानामा महमारिको कारणले २०२० मा तपाईंको व्यवसायको कार्यबल क्षमतामा परिवर्तन भएको छ ?</t>
+          <t>महामारीका कारण तलका कुन सम्पत्ति सम्बन्धित असर तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Compared to 2019, how has the size of your workforce changed in 2020?</t>
+          <t>Which of the following assets related impacts did your business have to face due to the pandemic?</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>110</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1004,35 +1004,35 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>i_fin_revenue_chng_2020_v_2019</t>
+          <t>i_fin_effct_eqty_ownrshp</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>२०१९को तुलानामा महमारिको कारणले २०२० मा तपाईंको व्यापार राजस्वमा परिवर्तन भएको छ ?</t>
+          <t>तलको कुन इक्विटी र स्वामित्वसँग सम्बन्धित प्रभावहरू तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Compared to 2019, how have your business revenues changed in 2020?</t>
+          <t>Which of the following equity and ownership related impacts did your business have to face due to the pandemic?</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>110</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1051,35 +1051,35 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>i_fin_savings_chng_2020_v_2019</t>
+          <t>i_geog_effect_loc_chng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>२०१९को तुलानामा महमारिको कारणले २०२० मा तपाईंको व्यवसायको बचतमा परिवर्तन भएको छ ?</t>
+          <t>तलका कुन स्थान सम्बन्धित प्रभावहरू तपाईंको व्यवसायले सामना गर्नु पर्‍यो?</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Compared to 2019, how has your business’s savings changed in 2020?</t>
+          <t>Which of the following location related impacts did your business have to face due to the pandemic?</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>110</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1098,28 +1098,28 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_measures</t>
+          <t>i_wrkfrc_actn_during_covid</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>स्वास्थ्य र सरसफाईसँग सम्बन्धित कुन उपायहरू तपाईंको व्यवसायले महामारीको बखत प्रयोग गर्यो?</t>
+          <t>महामारीको कारणले तलका मध्ये कुन कार्यबल सम्बन्धित कार्य तपाईंको व्यापारले गरेको छ ?</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Which of the following health and sanitation related measures did your business employ during the pandemic?</t>
+          <t>Which of the following workforce-related actions did your business take due to the pandemic?</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>110</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>preparedness</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently</t>
+          <t>general</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1145,45 +1145,45 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>p_hlth_safety_measures</t>
+          <t>i_wrkfrc_size_chng_2020_v_2019</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>कामदारहरूको लागि हाल के कस्तो सुरक्षा उपायहरू रहेका छन् ?</t>
+          <t>२०१९को तुलानामा महमारिको कारणले २०२० मा तपाईंको व्यवसायको कार्यबल क्षमतामा परिवर्तन भएको छ ?</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>What are some safety measures for workers that are currently in place?</t>
+          <t>Compared to 2019, how has the size of your workforce changed in 2020?</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>preparedness</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently</t>
+          <t>general</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -1192,28 +1192,28 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>p_recvry_strategic_actions_internl</t>
+          <t>p_hlth_hhs_measures</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>निम्न रणनीतिक कार्यहरू मध्ये कुन तपाईंको व्यवसायमा हाल महामारीको लागि एक प्रतिक्रियाको रूपमा उपक्रम (वा योजना) हो?</t>
+          <t>स्वास्थ्य र सरसफाईसँग सम्बन्धित कुन उपायहरू तपाईंको व्यवसायले महामारीको बखत प्रयोग गर्यो?</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Which of the following strategic actions is your business currently undertaking (or planning to undertake) as a response to the pandemic?</t>
+          <t>Which of the following health and sanitation related measures did your business employ during the pandemic?</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1239,28 +1239,28 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>p_recvry_strategic_actions_externl</t>
+          <t>p_hlth_safety_measures</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>तपाईको व्यवसायले हाल महामारीको प्रतिक्रियाका रूपमा बाह्य सरोकारवालाहरुसँग कस्तो रणनीतिक कार्यहरू गरिरहेको छ (वा गर्ने योजना बनाउँदैछ)?</t>
+          <t>कामदारहरूको लागि हाल के कस्तो सुरक्षा उपायहरू रहेका छन् ?</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>What strategic actions is your business currently undertaking (or planning to undertake) with the external stakeholders as a response to the pandemic?</t>
+          <t>What are some safety measures for workers that are currently in place?</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>91</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1286,35 +1286,35 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>p_dedictd_covid_desk</t>
+          <t>p_recvry_strategic_actions_internl</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>के तपाईंको व्यवसायमा समर्पित कोभिड-१९ डेस्क वा कर्मचारी छन्?</t>
+          <t>निम्न रणनीतिक कार्यहरू मध्ये कुन तपाईंको व्यवसायमा हाल महामारीको लागि एक प्रतिक्रियाको रूपमा उपक्रम (वा योजना) हो?</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Does your business have a dedicated COVID-19 desk or personnel?</t>
+          <t>Which of the following strategic actions is your business currently undertaking (or planning to undertake) as a response to the pandemic?</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>91</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1333,28 +1333,28 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_gov_policy</t>
+          <t>p_recvry_strategic_actions_externl</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>सरकारबाट कस्तो किसिमको नीति स्तर समर्थन तपाईंको व्यवसायको लागि सब भन्दा बढी सहयोगी हुन सक्छ?</t>
+          <t>तपाईको व्यवसायले हाल महामारीको प्रतिक्रियाका रूपमा बाह्य सरोकारवालाहरुसँग कस्तो रणनीतिक कार्यहरू गरिरहेको छ (वा गर्ने योजना बनाउँदैछ)?</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>What kind of policy level support from the government would be most helpful to your business?</t>
+          <t>What strategic actions is your business currently undertaking (or planning to undertake) with the external stakeholders as a response to the pandemic?</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>91</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>preparedness</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1380,40 +1380,40 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>o_expectd_problms_next_6_mnths</t>
+          <t>p_dedictd_covid_desk</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>आउँदो छ महिना भित्र, निम्न मध्ये कुन समस्या तपाईंको व्यवसायले सामना गर्नेछ?</t>
+          <t>के तपाईंको व्यवसायमा समर्पित कोभिड-१९ डेस्क वा कर्मचारी छन्?</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Within the next six months, which of the following problems will your business face?</t>
+          <t>Does your business have a dedicated COVID-19 desk or personnel?</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>91</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>preparedness</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1427,35 +1427,35 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_loan_pybck_incntv</t>
+          <t>o_expectd_problms_next_6_mnths</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>निम्न मध्ये कुन ऋण रकम फिर्ता सम्बन्धीत सहयोग तपाईंलाई सबैभन्दा बढी मद्दत पुर्याउँछ?</t>
+          <t>आउँदो छ महिना भित्र, निम्न मध्ये कुन समस्या तपाईंको व्यवसायले सामना गर्नेछ?</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Which of the following loan payback-related assistance will be most helpful to you?</t>
+          <t>Within the next six months, which of the following problems will your business face?</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently and business that will have difficulties in paying back existing loans</t>
+          <t>business that aren't closed permanently</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1474,28 +1474,28 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_fund_aprvl_incntv</t>
+          <t>n_rcvry_preferred_loan_pybck_incntv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>तलका कोषहरू सम्बन्धित कुन मद्दत तपाईंलाई सबैभन्दा बढी सहयोगी हुनेछ?</t>
+          <t>निम्न मध्ये कुन ऋण रकम फिर्ता सम्बन्धीत सहयोग तपाईंलाई सबैभन्दा बढी मद्दत पुर्याउँछ?</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Which of the following funds-related assistance will be most helpful to you?</t>
+          <t>Which of the following loan payback-related assistance will be most helpful to you?</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently and business that will have difficulties to acquire additional loans or funds</t>
+          <t>business that aren't closed permanently and business that will have difficulties in paying back existing loans</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1521,28 +1521,28 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_fin_source</t>
+          <t>n_rcvry_preferred_fund_aprvl_incntv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>तपाईंको व्यावसायको लागि निम्न आर्थिक स्रोत मध्ये कुन उपयुक्त हुनेछ?</t>
+          <t>तलका कोषहरू सम्बन्धित कुन मद्दत तपाईंलाई सबैभन्दा बढी सहयोगी हुनेछ?</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>What is your preferred source (first choice) of financial assistance that is most appropriate for your business?</t>
+          <t>Which of the following funds-related assistance will be most helpful to you?</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>33</v>
       </c>
       <c r="F24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1568,28 +1568,28 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_tax_asstnc</t>
+          <t>n_rcvry_preferred_fin_source</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>तलका करहरू सम्बन्धित कुन मद्दत तपाईंलाई सबैभन्दा बढी सहयोगी हुनेछ?</t>
+          <t>तपाईंको व्यावसायको लागि निम्न आर्थिक स्रोत मध्ये कुन उपयुक्त हुनेछ?</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Which of the following tax-related assistance will be most helpful to you?</t>
+          <t>What is your preferred source (first choice) of financial assistance that is most appropriate for your business?</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently and business that will have difficulties in paying its taxes</t>
+          <t>business that aren't closed permanently and business that will have difficulties to acquire additional loans or funds</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1615,28 +1615,28 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_tax_asstn_other</t>
+          <t>n_rcvry_preferred_tax_asstnc</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>निम्न मध्ये कुन अपरेटिंग लागत सम्बन्धित सहयोग तपाइँलाई सब भन्दा बढी सहयोगी हुनेछ?</t>
+          <t>तलका करहरू सम्बन्धित कुन मद्दत तपाईंलाई सबैभन्दा बढी सहयोगी हुनेछ?</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Which of the following operating costs-related assistance will be most helpful to you?</t>
+          <t>Which of the following tax-related assistance will be most helpful to you?</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently and business that will have difficulties in covering its operating costs</t>
+          <t>business that aren't closed permanently and business that will have difficulties in paying its taxes</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1662,28 +1662,28 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_labor_asstnc</t>
+          <t>n_rcvry_preferred_tax_asstn_other</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>निम्न मध्ये कुन श्रम सम्बन्धी सहयोग तपाईंलाई सबैभन्दा बढी सहयोगी हुनेछ?</t>
+          <t>निम्न मध्ये कुन अपरेटिंग लागत सम्बन्धित सहयोग तपाइँलाई सब भन्दा बढी सहयोगी हुनेछ?</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Which of the following labor-related assistance will be most helpful to you?</t>
+          <t>Which of the following operating costs-related assistance will be most helpful to you?</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently and business that will most likely face labor-related issues</t>
+          <t>business that aren't closed permanently and business that will have difficulties in covering its operating costs</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1709,28 +1709,28 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_outreach_other</t>
+          <t>n_rcvry_preferred_labor_asstnc</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>निम्न मध्ये कुन व्यापार आउटरीच सम्बन्धित सहयोग तपाईलाई सब भन्दा बढी सहयोगी हुनेछ?</t>
+          <t>निम्न मध्ये कुन श्रम सम्बन्धी सहयोग तपाईंलाई सबैभन्दा बढी सहयोगी हुनेछ?</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Which of the following business outreach-related assistance will be most helpful to you?</t>
+          <t>Which of the following labor-related assistance will be most helpful to you?</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently and business that will have difficulties in getting enough customers</t>
+          <t>business that aren't closed permanently and business that will most likely face labor-related issues</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1756,28 +1756,28 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>o_do_u_know_of_gov_schemes</t>
+          <t>n_rcvry_preferred_outreach_other</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>पर्यटन व्यवसायको पुनरुद्धारका लागि सरकारले विभिन्न योजनाको घोषणा गरेको छ। के तपाईंले यस्ता कुनै योजनाहरू प्रयोग गर्नुभयो?</t>
+          <t>निम्न मध्ये कुन व्यापार आउटरीच सम्बन्धित सहयोग तपाईलाई सब भन्दा बढी सहयोगी हुनेछ?</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The government has announced different schemes for the revival of the tourism businesses. Have you used any of such schemes?</t>
+          <t>Which of the following business outreach-related assistance will be most helpful to you?</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently</t>
+          <t>business that aren't closed permanently and business that will have difficulties in getting enough customers</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1803,28 +1803,28 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>o_how_efctv_gov_schemes</t>
+          <t>n_rcvry_preferred_gov_policy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>तपाईंले ती योजनाहरू कसरी प्रभावकारी पाउनुभयो?</t>
+          <t>सरकारबाट कस्तो किसिमको नीति स्तर समर्थन तपाईंको व्यवसायको लागि सब भन्दा बढी सहयोगी हुन सक्छ?</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>How effective did you find those schemes?</t>
+          <t>What kind of policy level support from the government would be most helpful to your business?</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently and know about government schemes</t>
+          <t>business that aren't closed permanently</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1850,28 +1850,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>o_covid_how_long_it_last</t>
+          <t>o_do_u_know_of_gov_schemes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>महामारीको कारणले भएको विघटन कति लामो हुने आशा गर्नुहुन्छ?</t>
+          <t>पर्यटन व्यवसायको पुनरुद्धारका लागि सरकारले विभिन्न योजनाको घोषणा गरेको छ। के तपाईंले यस्ता कुनै योजनाहरू प्रयोग गर्नुभयो?</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>How much longer do you expect the disruption due to COVID-19 to last?</t>
+          <t>The government has announced different schemes for the revival of the tourism businesses. Have you used any of such schemes?</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1883,12 +1883,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>need</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>business that aren't closed permanently</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -1897,45 +1897,45 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>o_econ_impact_revenue_chng_21_v_19</t>
+          <t>o_how_efctv_gov_schemes</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>२०१९को तुलानामा २०२१मा तपाईंको व्यवसायले कति राजस्व पाउने आशा गर्छ?</t>
+          <t>तपाईंले ती योजनाहरू कसरी प्रभावकारी पाउनुभयो?</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Compared to 2019, how much revenues does your business expect to earn in 2021?</t>
+          <t>How effective did you find those schemes?</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="F32" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>outlook</t>
+          <t>need</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently</t>
+          <t>business that aren't closed permanently and know about government schemes</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -1944,28 +1944,28 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>o_econ_impact_wrkfrc_chng_21_v_19</t>
+          <t>o_covid_how_long_it_last</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>२०१९को तुलानामा २०२१मा तपाईंको व्यवसायले कति प्रतिशत कामदार नियुक्त गर्नेछ?</t>
+          <t>महामारीको कारणले भएको विघटन कति लामो हुने आशा गर्नुहुन्छ?</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Compared to 2019, what percentage of workforce will your business employ in 2021?</t>
+          <t>How much longer do you expect the disruption due to COVID-19 to last?</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F33" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>business that aren't closed permanently</t>
+          <t>general</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -1991,7 +1991,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2038,28 +2038,28 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>o_rcvry_biggest_support</t>
+          <t>o_econ_impact_revenue_chng_21_v_19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>तपाईको व्यवसायको लागी सब भन्दा ठूलो सहयोगी को हुनसक्छ ?</t>
+          <t>२०१९को तुलानामा २०२१मा तपाईंको व्यवसायले कति राजस्व पाउने आशा गर्छ?</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Who do you think will be the biggest support for your business in 2021?</t>
+          <t>Compared to 2019, how much revenues does your business expect to earn in 2021?</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>91</v>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2085,35 +2085,35 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>o_perm_stop_biz_start_new</t>
+          <t>o_econ_impact_wrkfrc_chng_21_v_19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>के तपाईंले अन्य व्यवसाय सुरू गर्नुभयो?</t>
+          <t>२०१९को तुलानामा २०२१मा तपाईंको व्यवसायले कति प्रतिशत कामदार नियुक्त गर्नेछ?</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Have you started other business(es)?</t>
+          <t>Compared to 2019, what percentage of workforce will your business employ in 2021?</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>multi-select</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>business that are permanently stopped</t>
+          <t>business that aren't closed permanently</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2132,28 +2132,28 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>o_perm_stop_biz_future_retrn_trsm_biz</t>
+          <t>o_rcvry_biggest_support</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>के तपाइँ भविष्यमा पर्यटन व्यवसायमा फर्कनु हुनेछ ?</t>
+          <t>तपाईको व्यवसायको लागी सब भन्दा ठूलो सहयोगी को हुनसक्छ ?</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Do you intend to return to the tourism business in the future?</t>
+          <t>Who do you think will be the biggest support for your business in 2021?</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F37" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>business that are permanently stopped and haven't started new tourism or non-tourism business</t>
+          <t>business that aren't closed permanently</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2179,35 +2179,35 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>o_perm_stop_biz_start_new_job</t>
+          <t>o_perm_stop_biz_start_new</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>के तपाईंले नयाँ काम शुरू गर्नुभयो?</t>
+          <t>के तपाईंले अन्य व्यवसाय सुरू गर्नुभयो?</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Have you started a new job?</t>
+          <t>Have you started other business(es)?</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>19</v>
       </c>
       <c r="F38" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>single-select</t>
+          <t>multi-select</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2226,45 +2226,45 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>m_biz_type</t>
+          <t>o_perm_stop_biz_future_retrn_trsm_biz</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>व्यवसायको प्रकार</t>
+          <t>के तपाइँ भविष्यमा पर्यटन व्यवसायमा फर्कनु हुनेछ ?</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Type of business</t>
+          <t>Do you intend to return to the tourism business in the future?</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>groupby</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>business that are permanently stopped and haven't started new tourism or non-tourism business</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2273,45 +2273,45 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>m_biz_years_in_operation</t>
+          <t>o_perm_stop_biz_start_new_job</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>यो कहिलेदेखि काम गर्दै आएको छ?</t>
+          <t>के तपाईंले नयाँ काम शुरू गर्नुभयो?</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>How long has this been in operation for?</t>
+          <t>Have you started a new job?</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>groupby</t>
+          <t>single-select</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>outlook</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>business that are permanently stopped</t>
         </is>
       </c>
       <c r="K40" t="n">
